--- a/public/files/template/template.xlsx
+++ b/public/files/template/template.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t xml:space="preserve">Расход электроэнергии за</t>
-  </si>
-  <si>
-    <t xml:space="preserve">месяц 2021 года</t>
   </si>
   <si>
     <t xml:space="preserve">Тип БУ, зав.№</t>
@@ -68,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Итого по скважине</t>
-  </si>
-  <si>
-    <t xml:space="preserve">переход</t>
   </si>
   <si>
     <t xml:space="preserve">ВСЕГО за месяц</t>
@@ -838,8 +832,8 @@
   </sheetPr>
   <dimension ref="A1:AL40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AJ10" activeCellId="0" sqref="AJ10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -922,9 +916,7 @@
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
-      <c r="E2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
@@ -998,7 +990,7 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8"/>
@@ -1040,7 +1032,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="10"/>
@@ -1082,7 +1074,7 @@
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="10"/>
@@ -1163,17 +1155,17 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>6</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -1206,10 +1198,10 @@
       <c r="AH8" s="17"/>
       <c r="AI8" s="17"/>
       <c r="AJ8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK8" s="18" t="s">
         <v>8</v>
-      </c>
-      <c r="AK8" s="18" t="s">
-        <v>9</v>
       </c>
       <c r="AL8" s="19"/>
     </row>
@@ -1217,10 +1209,10 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>10</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>11</v>
       </c>
       <c r="E9" s="20" t="n">
         <v>1</v>
@@ -1322,7 +1314,7 @@
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23"/>
       <c r="B10" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -1370,14 +1362,10 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23"/>
       <c r="B11" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="35" t="n">
-        <v>44527.0833333333</v>
-      </c>
-      <c r="D11" s="36" t="n">
-        <v>44538.25</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -1422,7 +1410,7 @@
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="23"/>
       <c r="B12" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -1563,14 +1551,10 @@
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23"/>
       <c r="B13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="25" t="n">
-        <v>44538.25</v>
-      </c>
-      <c r="D13" s="26" t="n">
-        <v>44539.0416666667</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -1615,14 +1599,10 @@
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23"/>
       <c r="B14" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="35" t="n">
-        <v>44539.0416666667</v>
-      </c>
-      <c r="D14" s="35" t="n">
-        <v>44547.4166666667</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
@@ -1667,7 +1647,7 @@
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="23"/>
       <c r="B15" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
@@ -1808,14 +1788,10 @@
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23"/>
       <c r="B16" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="25" t="n">
-        <v>44547.4166666667</v>
-      </c>
-      <c r="D16" s="26" t="n">
-        <v>44548.25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
@@ -1860,14 +1836,10 @@
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23"/>
       <c r="B17" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="35" t="n">
-        <v>44548.25</v>
-      </c>
-      <c r="D17" s="51" t="n">
-        <v>44558.3333333333</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
       <c r="G17" s="45"/>
@@ -1912,7 +1884,7 @@
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="23"/>
       <c r="B18" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
@@ -2053,14 +2025,10 @@
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23"/>
       <c r="B19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="52" t="n">
-        <v>44558.3333333333</v>
-      </c>
-      <c r="D19" s="26" t="n">
-        <v>44559</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
@@ -2105,14 +2073,10 @@
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23"/>
       <c r="B20" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="35" t="n">
-        <v>44559</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>15</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="45"/>
       <c r="F20" s="45"/>
       <c r="G20" s="45"/>
@@ -2157,7 +2121,7 @@
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="23"/>
       <c r="B21" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
@@ -2330,7 +2294,7 @@
       <c r="AF22" s="58"/>
       <c r="AG22" s="58"/>
       <c r="AH22" s="58" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI22" s="58"/>
       <c r="AJ22" s="59" t="n">
@@ -2487,7 +2451,7 @@
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
       <c r="B28" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -2609,7 +2573,7 @@
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="68"/>
       <c r="B31" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2661,7 +2625,7 @@
       <c r="J32" s="72"/>
       <c r="K32" s="65"/>
       <c r="L32" s="73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M32" s="73"/>
       <c r="N32" s="73"/>
@@ -2733,7 +2697,7 @@
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="68"/>
       <c r="B34" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2785,7 +2749,7 @@
       <c r="J35" s="65"/>
       <c r="K35" s="65"/>
       <c r="L35" s="73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M35" s="73"/>
       <c r="N35" s="73"/>
@@ -2857,7 +2821,7 @@
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="68"/>
       <c r="B37" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="65"/>
@@ -2899,7 +2863,7 @@
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="68"/>
       <c r="B38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="65"/>
@@ -2981,7 +2945,7 @@
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="68"/>
       <c r="B40" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>

--- a/public/files/template/template.xlsx
+++ b/public/files/template/template.xlsx
@@ -456,7 +456,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,10 +637,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="12" fillId="3" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -652,6 +660,10 @@
     <xf numFmtId="166" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
@@ -833,7 +845,7 @@
   <dimension ref="A1:AL40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1556,7 +1568,7 @@
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
@@ -1603,42 +1615,42 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="35"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="47" t="n">
+      <c r="E14" s="46"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="46"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="48"/>
+      <c r="AJ14" s="49" t="n">
         <f aca="false">SUM(E14:AI14)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="48" t="e">
+      <c r="AK14" s="50" t="e">
         <f aca="false">AJ14/AJ22*AL22</f>
         <v>#DIV/0!</v>
       </c>
@@ -1651,15 +1663,15 @@
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="41" t="n">
+      <c r="E15" s="51" t="n">
         <f aca="false">E13+E14</f>
         <v>0</v>
       </c>
-      <c r="F15" s="41" t="n">
+      <c r="F15" s="51" t="n">
         <f aca="false">F13+F14</f>
         <v>0</v>
       </c>
-      <c r="G15" s="41" t="n">
+      <c r="G15" s="51" t="n">
         <f aca="false">G13+G14</f>
         <v>0</v>
       </c>
@@ -1763,15 +1775,15 @@
         <f aca="false">AF13+AF14</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="49" t="n">
+      <c r="AG15" s="52" t="n">
         <f aca="false">AG13+AG14</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="49" t="n">
+      <c r="AH15" s="52" t="n">
         <f aca="false">AH13+AH14</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="50" t="n">
+      <c r="AI15" s="53" t="n">
         <f aca="false">AI13+AI14</f>
         <v>0</v>
       </c>
@@ -1839,43 +1851,43 @@
         <v>12</v>
       </c>
       <c r="C17" s="35"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
-      <c r="T17" s="45"/>
-      <c r="U17" s="45"/>
-      <c r="V17" s="45"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="45"/>
-      <c r="AA17" s="45"/>
-      <c r="AB17" s="45"/>
-      <c r="AC17" s="45"/>
-      <c r="AD17" s="45"/>
-      <c r="AE17" s="45"/>
-      <c r="AF17" s="45"/>
-      <c r="AG17" s="45"/>
-      <c r="AH17" s="45"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="47" t="n">
+      <c r="D17" s="54"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+      <c r="AA17" s="46"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="46"/>
+      <c r="AD17" s="46"/>
+      <c r="AE17" s="46"/>
+      <c r="AF17" s="46"/>
+      <c r="AG17" s="46"/>
+      <c r="AH17" s="46"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="49" t="n">
         <f aca="false">SUM(E17:AI17)</f>
         <v>0</v>
       </c>
-      <c r="AK17" s="48" t="e">
+      <c r="AK17" s="50" t="e">
         <f aca="false">AJ17/AJ22*AL22</f>
         <v>#DIV/0!</v>
       </c>
@@ -2000,15 +2012,15 @@
         <f aca="false">AF16+AF17</f>
         <v>0</v>
       </c>
-      <c r="AG18" s="49" t="n">
+      <c r="AG18" s="52" t="n">
         <f aca="false">AG16+AG17</f>
         <v>0</v>
       </c>
-      <c r="AH18" s="49" t="n">
+      <c r="AH18" s="52" t="n">
         <f aca="false">AH16+AH17</f>
         <v>0</v>
       </c>
-      <c r="AI18" s="50" t="n">
+      <c r="AI18" s="53" t="n">
         <f aca="false">AI16+AI17</f>
         <v>0</v>
       </c>
@@ -2027,7 +2039,7 @@
       <c r="B19" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="26"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -2056,7 +2068,7 @@
       <c r="AC19" s="27"/>
       <c r="AD19" s="27"/>
       <c r="AE19" s="29"/>
-      <c r="AF19" s="53"/>
+      <c r="AF19" s="56"/>
       <c r="AG19" s="30"/>
       <c r="AH19" s="30"/>
       <c r="AI19" s="31"/>
@@ -2076,43 +2088,43 @@
         <v>12</v>
       </c>
       <c r="C20" s="35"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
-      <c r="T20" s="45"/>
-      <c r="U20" s="45"/>
-      <c r="V20" s="45"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="45"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="45"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="45"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="45"/>
-      <c r="AI20" s="45"/>
-      <c r="AJ20" s="47" t="n">
+      <c r="D20" s="54"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+      <c r="AA20" s="46"/>
+      <c r="AB20" s="46"/>
+      <c r="AC20" s="46"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="46"/>
+      <c r="AG20" s="46"/>
+      <c r="AH20" s="46"/>
+      <c r="AI20" s="46"/>
+      <c r="AJ20" s="49" t="n">
         <f aca="false">SUM(E20:AI20)</f>
         <v>0</v>
       </c>
-      <c r="AK20" s="48" t="e">
+      <c r="AK20" s="50" t="e">
         <f aca="false">AJ20/AJ22*AL22</f>
         <v>#DIV/0!</v>
       </c>
@@ -2237,15 +2249,15 @@
         <f aca="false">AF19+AF20</f>
         <v>0</v>
       </c>
-      <c r="AG21" s="49" t="n">
+      <c r="AG21" s="52" t="n">
         <f aca="false">AG19+AG20</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="49" t="n">
+      <c r="AH21" s="52" t="n">
         <f aca="false">AH19+AH20</f>
         <v>0</v>
       </c>
-      <c r="AI21" s="50" t="n">
+      <c r="AI21" s="53" t="n">
         <f aca="false">AI19+AI20</f>
         <v>0</v>
       </c>
@@ -2260,193 +2272,193 @@
       <c r="AL21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="58"/>
-      <c r="AE22" s="58"/>
-      <c r="AF22" s="58"/>
-      <c r="AG22" s="58"/>
-      <c r="AH22" s="58" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+      <c r="O22" s="60"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="60"/>
+      <c r="AC22" s="60"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="AI22" s="58"/>
-      <c r="AJ22" s="59" t="n">
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="62" t="n">
         <f aca="false">AJ12+AJ15+AJ18+AJ21</f>
         <v>0</v>
       </c>
-      <c r="AK22" s="59" t="e">
+      <c r="AK22" s="62" t="e">
         <f aca="false">AK12+AK15+AK18+AK21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL22" s="60" t="n">
+      <c r="AL22" s="63" t="n">
         <v>701</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="AJ23" s="61"/>
-      <c r="AK23" s="61"/>
-      <c r="AL23" s="60"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="AJ23" s="64"/>
+      <c r="AK23" s="64"/>
+      <c r="AL23" s="63"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
-      <c r="AB24" s="57"/>
-      <c r="AC24" s="57"/>
-      <c r="AD24" s="57"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="57"/>
-      <c r="AG24" s="57"/>
-      <c r="AH24" s="57"/>
-      <c r="AI24" s="57"/>
-      <c r="AJ24" s="57"/>
-      <c r="AK24" s="61"/>
-      <c r="AL24" s="60"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="60"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="60"/>
+      <c r="AG24" s="60"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="60"/>
+      <c r="AJ24" s="60"/>
+      <c r="AK24" s="64"/>
+      <c r="AL24" s="63"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="61"/>
-      <c r="AL25" s="60"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="64"/>
+      <c r="AL25" s="63"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="57"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="57"/>
-      <c r="AD26" s="57"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="57"/>
-      <c r="AH26" s="57"/>
-      <c r="AI26" s="57"/>
-      <c r="AJ26" s="57"/>
-      <c r="AK26" s="61"/>
-      <c r="AL26" s="60"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
+      <c r="S26" s="60"/>
+      <c r="T26" s="60"/>
+      <c r="U26" s="60"/>
+      <c r="V26" s="60"/>
+      <c r="W26" s="60"/>
+      <c r="X26" s="60"/>
+      <c r="Y26" s="60"/>
+      <c r="Z26" s="60"/>
+      <c r="AA26" s="60"/>
+      <c r="AB26" s="60"/>
+      <c r="AC26" s="60"/>
+      <c r="AD26" s="60"/>
+      <c r="AE26" s="60"/>
+      <c r="AF26" s="60"/>
+      <c r="AG26" s="60"/>
+      <c r="AH26" s="60"/>
+      <c r="AI26" s="60"/>
+      <c r="AJ26" s="60"/>
+      <c r="AK26" s="64"/>
+      <c r="AL26" s="63"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="63"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="AI27" s="57"/>
-      <c r="AJ27" s="64"/>
-      <c r="AK27" s="64"/>
-      <c r="AL27" s="63"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="AI27" s="60"/>
+      <c r="AJ27" s="67"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="66"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
@@ -2455,19 +2467,19 @@
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="65"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="68"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="68"/>
       <c r="O28" s="5"/>
       <c r="P28" s="5"/>
-      <c r="Q28" s="67"/>
+      <c r="Q28" s="70"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
       <c r="T28" s="12"/>
@@ -2494,20 +2506,20 @@
       <c r="A29" s="12"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="67"/>
+      <c r="Q29" s="70"/>
       <c r="R29" s="12"/>
       <c r="S29" s="12"/>
       <c r="T29" s="12"/>
@@ -2534,20 +2546,20 @@
       <c r="A30" s="12"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="65"/>
-      <c r="K30" s="65"/>
-      <c r="L30" s="65"/>
-      <c r="M30" s="65"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
       <c r="N30" s="5"/>
       <c r="O30" s="5"/>
       <c r="P30" s="5"/>
-      <c r="Q30" s="67"/>
+      <c r="Q30" s="70"/>
       <c r="R30" s="12"/>
       <c r="S30" s="12"/>
       <c r="T30" s="12"/>
@@ -2571,418 +2583,418 @@
       <c r="AL30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="68"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="65"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="68"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="68"/>
-      <c r="AK31" s="68"/>
-      <c r="AL31" s="68"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="71"/>
+      <c r="T31" s="71"/>
+      <c r="U31" s="71"/>
+      <c r="V31" s="71"/>
+      <c r="W31" s="71"/>
+      <c r="X31" s="71"/>
+      <c r="Y31" s="71"/>
+      <c r="Z31" s="71"/>
+      <c r="AA31" s="71"/>
+      <c r="AB31" s="71"/>
+      <c r="AC31" s="71"/>
+      <c r="AD31" s="71"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="71"/>
+      <c r="AI31" s="71"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="71"/>
+      <c r="AL31" s="71"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="68"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="73" t="s">
+      <c r="A32" s="71"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="68"/>
+      <c r="L32" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="68"/>
-      <c r="AK32" s="68"/>
-      <c r="AL32" s="68"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="71"/>
+      <c r="T32" s="71"/>
+      <c r="U32" s="71"/>
+      <c r="V32" s="71"/>
+      <c r="W32" s="71"/>
+      <c r="X32" s="71"/>
+      <c r="Y32" s="71"/>
+      <c r="Z32" s="71"/>
+      <c r="AA32" s="71"/>
+      <c r="AB32" s="71"/>
+      <c r="AC32" s="71"/>
+      <c r="AD32" s="71"/>
+      <c r="AE32" s="71"/>
+      <c r="AF32" s="71"/>
+      <c r="AG32" s="71"/>
+      <c r="AH32" s="71"/>
+      <c r="AI32" s="71"/>
+      <c r="AJ32" s="71"/>
+      <c r="AK32" s="71"/>
+      <c r="AL32" s="71"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="68"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="65"/>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="68"/>
-      <c r="S33" s="68"/>
-      <c r="T33" s="68"/>
-      <c r="U33" s="68"/>
-      <c r="V33" s="68"/>
-      <c r="W33" s="68"/>
-      <c r="X33" s="68"/>
-      <c r="Y33" s="68"/>
-      <c r="Z33" s="68"/>
-      <c r="AA33" s="68"/>
-      <c r="AB33" s="68"/>
-      <c r="AC33" s="68"/>
-      <c r="AD33" s="68"/>
-      <c r="AE33" s="68"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="68"/>
-      <c r="AK33" s="68"/>
-      <c r="AL33" s="68"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="71"/>
+      <c r="AF33" s="71"/>
+      <c r="AG33" s="71"/>
+      <c r="AH33" s="71"/>
+      <c r="AI33" s="71"/>
+      <c r="AJ33" s="71"/>
+      <c r="AK33" s="71"/>
+      <c r="AL33" s="71"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="68"/>
+      <c r="A34" s="71"/>
       <c r="B34" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="70"/>
-      <c r="P34" s="70"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="68"/>
-      <c r="AK34" s="68"/>
-      <c r="AL34" s="68"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
+      <c r="AD34" s="71"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="71"/>
+      <c r="AG34" s="71"/>
+      <c r="AH34" s="71"/>
+      <c r="AI34" s="71"/>
+      <c r="AJ34" s="71"/>
+      <c r="AK34" s="71"/>
+      <c r="AL34" s="71"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="68"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="73" t="s">
+      <c r="A35" s="71"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="68"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="68"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
+      <c r="L35" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="68"/>
-      <c r="S35" s="68"/>
-      <c r="T35" s="68"/>
-      <c r="U35" s="68"/>
-      <c r="V35" s="68"/>
-      <c r="W35" s="68"/>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="68"/>
-      <c r="Z35" s="68"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="68"/>
-      <c r="AC35" s="68"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="68"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="68"/>
-      <c r="AJ35" s="68"/>
-      <c r="AK35" s="68"/>
-      <c r="AL35" s="68"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="68"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="71"/>
+      <c r="T35" s="71"/>
+      <c r="U35" s="71"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="71"/>
+      <c r="X35" s="71"/>
+      <c r="Y35" s="71"/>
+      <c r="Z35" s="71"/>
+      <c r="AA35" s="71"/>
+      <c r="AB35" s="71"/>
+      <c r="AC35" s="71"/>
+      <c r="AD35" s="71"/>
+      <c r="AE35" s="71"/>
+      <c r="AF35" s="71"/>
+      <c r="AG35" s="71"/>
+      <c r="AH35" s="71"/>
+      <c r="AI35" s="71"/>
+      <c r="AJ35" s="71"/>
+      <c r="AK35" s="71"/>
+      <c r="AL35" s="71"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="68"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="68"/>
-      <c r="S36" s="68"/>
-      <c r="T36" s="68"/>
-      <c r="U36" s="68"/>
-      <c r="V36" s="68"/>
-      <c r="W36" s="68"/>
-      <c r="X36" s="68"/>
-      <c r="Y36" s="68"/>
-      <c r="Z36" s="68"/>
-      <c r="AA36" s="68"/>
-      <c r="AB36" s="68"/>
-      <c r="AC36" s="68"/>
-      <c r="AD36" s="68"/>
-      <c r="AE36" s="68"/>
-      <c r="AF36" s="68"/>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="68"/>
-      <c r="AK36" s="68"/>
-      <c r="AL36" s="68"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
+      <c r="P36" s="68"/>
+      <c r="Q36" s="68"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="71"/>
+      <c r="AF36" s="71"/>
+      <c r="AG36" s="71"/>
+      <c r="AH36" s="71"/>
+      <c r="AI36" s="71"/>
+      <c r="AJ36" s="71"/>
+      <c r="AK36" s="71"/>
+      <c r="AL36" s="71"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="68"/>
+      <c r="A37" s="71"/>
       <c r="B37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="3"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="65"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="65"/>
-      <c r="K37" s="65"/>
-      <c r="L37" s="65"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="65"/>
-      <c r="P37" s="65"/>
-      <c r="Q37" s="65"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="68"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="68"/>
-      <c r="AJ37" s="68"/>
-      <c r="AK37" s="68"/>
-      <c r="AL37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
+      <c r="L37" s="68"/>
+      <c r="M37" s="68"/>
+      <c r="N37" s="68"/>
+      <c r="O37" s="68"/>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="71"/>
+      <c r="U37" s="71"/>
+      <c r="V37" s="71"/>
+      <c r="W37" s="71"/>
+      <c r="X37" s="71"/>
+      <c r="Y37" s="71"/>
+      <c r="Z37" s="71"/>
+      <c r="AA37" s="71"/>
+      <c r="AB37" s="71"/>
+      <c r="AC37" s="71"/>
+      <c r="AD37" s="71"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="71"/>
+      <c r="AG37" s="71"/>
+      <c r="AH37" s="71"/>
+      <c r="AI37" s="71"/>
+      <c r="AJ37" s="71"/>
+      <c r="AK37" s="71"/>
+      <c r="AL37" s="71"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="68"/>
+      <c r="A38" s="71"/>
       <c r="B38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="68"/>
-      <c r="AJ38" s="68"/>
-      <c r="AK38" s="68"/>
-      <c r="AL38" s="68"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="68"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="68"/>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="71"/>
+      <c r="T38" s="71"/>
+      <c r="U38" s="71"/>
+      <c r="V38" s="71"/>
+      <c r="W38" s="71"/>
+      <c r="X38" s="71"/>
+      <c r="Y38" s="71"/>
+      <c r="Z38" s="71"/>
+      <c r="AA38" s="71"/>
+      <c r="AB38" s="71"/>
+      <c r="AC38" s="71"/>
+      <c r="AD38" s="71"/>
+      <c r="AE38" s="71"/>
+      <c r="AF38" s="71"/>
+      <c r="AG38" s="71"/>
+      <c r="AH38" s="71"/>
+      <c r="AI38" s="71"/>
+      <c r="AJ38" s="71"/>
+      <c r="AK38" s="71"/>
+      <c r="AL38" s="71"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="68"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="65"/>
-      <c r="L39" s="65"/>
-      <c r="M39" s="65"/>
-      <c r="N39" s="65"/>
-      <c r="O39" s="65"/>
-      <c r="P39" s="65"/>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="68"/>
-      <c r="AE39" s="68"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="68"/>
-      <c r="AK39" s="68"/>
-      <c r="AL39" s="68"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="68"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="68"/>
+      <c r="M39" s="68"/>
+      <c r="N39" s="68"/>
+      <c r="O39" s="68"/>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="71"/>
+      <c r="AF39" s="71"/>
+      <c r="AG39" s="71"/>
+      <c r="AH39" s="71"/>
+      <c r="AI39" s="71"/>
+      <c r="AJ39" s="71"/>
+      <c r="AK39" s="71"/>
+      <c r="AL39" s="71"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="68"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="65"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="68"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="68"/>
-      <c r="AJ40" s="68"/>
-      <c r="AK40" s="68"/>
-      <c r="AL40" s="68"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="68"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="71"/>
+      <c r="T40" s="71"/>
+      <c r="U40" s="71"/>
+      <c r="V40" s="71"/>
+      <c r="W40" s="71"/>
+      <c r="X40" s="71"/>
+      <c r="Y40" s="71"/>
+      <c r="Z40" s="71"/>
+      <c r="AA40" s="71"/>
+      <c r="AB40" s="71"/>
+      <c r="AC40" s="71"/>
+      <c r="AD40" s="71"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="71"/>
+      <c r="AG40" s="71"/>
+      <c r="AH40" s="71"/>
+      <c r="AI40" s="71"/>
+      <c r="AJ40" s="71"/>
+      <c r="AK40" s="71"/>
+      <c r="AL40" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="29">
